--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="22">
   <si>
     <t>type</t>
   </si>
@@ -82,12 +82,20 @@
     <t>service/payment/qps(2xx)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>service/carts/latency</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,24 +258,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF9C0006"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF006100"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF9C6500"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -453,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -565,6 +555,26 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,20 +707,65 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1034,37 +1089,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:X121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="H105" workbookViewId="0">
+      <selection activeCell="X121" sqref="R105:X121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="18" max="18" width="21.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
@@ -1085,9 +1187,51 @@
       <c r="G2" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1">
+        <v>7</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>8</v>
+      </c>
+      <c r="U2" s="1">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1">
+        <v>9</v>
+      </c>
+      <c r="W2" s="1">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -1106,9 +1250,51 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="J3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -1127,9 +1313,51 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="J4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -1148,9 +1376,51 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="J5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -1169,9 +1439,51 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="J6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="4">
+        <v>4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
@@ -1192,9 +1504,30 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="J7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -1213,9 +1546,51 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="J8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -1234,9 +1609,51 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="J9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -1255,9 +1672,51 @@
       <c r="G10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="J10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>4</v>
+      </c>
+      <c r="W10" s="1">
+        <v>6</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -1276,9 +1735,51 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="J11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>5</v>
+      </c>
+      <c r="U11" s="1">
+        <v>8</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1">
@@ -1299,9 +1800,30 @@
       <c r="G12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="R12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>3</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2</v>
+      </c>
+      <c r="W12" s="1">
+        <v>5</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -1320,9 +1842,30 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="R13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -1341,9 +1884,30 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="R14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>11</v>
+      </c>
+      <c r="U14" s="1">
+        <v>11</v>
+      </c>
+      <c r="V14" s="1">
+        <v>8</v>
+      </c>
+      <c r="W14" s="1">
+        <v>11</v>
+      </c>
+      <c r="X14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -1362,9 +1926,51 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="J15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
       <c r="B16" s="1">
         <v>4</v>
       </c>
@@ -1383,9 +1989,51 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="J16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>11</v>
+      </c>
+      <c r="M16" s="1">
+        <v>11</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8</v>
+      </c>
+      <c r="O16" s="1">
+        <v>11</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1">
@@ -1406,9 +2054,51 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="J17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -1427,9 +2117,51 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="J18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>2</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -1448,9 +2180,51 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="J19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>3</v>
+      </c>
+      <c r="W19" s="1">
+        <v>7</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -1469,9 +2243,51 @@
       <c r="G20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="J20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>2</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -1490,9 +2306,51 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="J21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>7</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="1">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>2</v>
+      </c>
+      <c r="U21" s="1">
+        <v>8</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <v>2</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1">
@@ -1513,9 +2371,51 @@
       <c r="G22" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="J22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>4</v>
+      </c>
+      <c r="W22" s="1">
+        <v>4</v>
+      </c>
+      <c r="X22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
       <c r="B23" s="1">
         <v>1</v>
       </c>
@@ -1534,9 +2434,51 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="J23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="1">
+        <v>4</v>
+      </c>
+      <c r="T23" s="1">
+        <v>6</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>2</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -1555,9 +2497,51 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>4</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>6</v>
+      </c>
+      <c r="U24" s="1">
+        <v>2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>9</v>
+      </c>
+      <c r="W24" s="1">
+        <v>13</v>
+      </c>
+      <c r="X24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -1576,9 +2560,51 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="J25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="1">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1">
+        <v>6</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1">
@@ -1599,9 +2625,51 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="J26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>9</v>
+      </c>
+      <c r="O26" s="1">
+        <v>13</v>
+      </c>
+      <c r="P26" s="1">
+        <v>6</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="1">
+        <v>2</v>
+      </c>
+      <c r="T26" s="1">
+        <v>5</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
       <c r="B27" s="1">
         <v>1</v>
       </c>
@@ -1620,9 +2688,51 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="J27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="1">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1">
+        <v>3</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -1641,9 +2751,51 @@
       <c r="G28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="J28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>2</v>
+      </c>
+      <c r="U28" s="1">
+        <v>5</v>
+      </c>
+      <c r="V28" s="1">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -1662,9 +2814,51 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="J29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>2</v>
+      </c>
+      <c r="W29" s="1">
+        <v>6</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -1683,9 +2877,51 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="J30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>5</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S30" s="1">
+        <v>2</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>2</v>
+      </c>
+      <c r="V30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>4</v>
+      </c>
+      <c r="X30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -1704,9 +2940,51 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="J31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>6</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="1">
+        <v>3</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -1725,9 +3003,51 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="J32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>4</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32" s="1">
+        <v>4</v>
+      </c>
+      <c r="T32" s="1">
+        <v>6</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>2</v>
+      </c>
+      <c r="W32" s="1">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="1">
@@ -1748,9 +3068,51 @@
       <c r="G33" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
+      <c r="J33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" s="1">
+        <v>5</v>
+      </c>
+      <c r="T33" s="1">
+        <v>2</v>
+      </c>
+      <c r="U33" s="1">
+        <v>3</v>
+      </c>
+      <c r="V33" s="1">
+        <v>2</v>
+      </c>
+      <c r="W33" s="1">
+        <v>2</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -1769,9 +3131,51 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="J34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>6</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S34" s="1">
+        <v>6</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
       <c r="B35" s="1">
         <v>2</v>
       </c>
@@ -1790,9 +3194,51 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="J35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>4</v>
+      </c>
+      <c r="U35" s="1">
+        <v>2</v>
+      </c>
+      <c r="V35" s="1">
+        <v>6</v>
+      </c>
+      <c r="W35" s="1">
+        <v>10</v>
+      </c>
+      <c r="X35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -1811,9 +3257,51 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="J36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="1">
+        <v>6</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S36" s="1">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>2</v>
+      </c>
+      <c r="U36" s="1">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
       <c r="B37" s="1">
         <v>4</v>
       </c>
@@ -1832,9 +3320,51 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="J37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4</v>
+      </c>
+      <c r="M37" s="1">
+        <v>2</v>
+      </c>
+      <c r="N37" s="1">
+        <v>6</v>
+      </c>
+      <c r="O37" s="1">
+        <v>10</v>
+      </c>
+      <c r="P37" s="1">
+        <v>4</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S37" s="1">
+        <v>2</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>2</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>1</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="1">
@@ -1855,9 +3385,51 @@
       <c r="G38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="J38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S38" s="1">
+        <v>3</v>
+      </c>
+      <c r="T38" s="1">
+        <v>3</v>
+      </c>
+      <c r="U38" s="1">
+        <v>4</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
       <c r="B39" s="1">
         <v>1</v>
       </c>
@@ -1876,9 +3448,51 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="J39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S39" s="1">
+        <v>4</v>
+      </c>
+      <c r="T39" s="1">
+        <v>2</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1">
+        <v>2</v>
+      </c>
+      <c r="W39" s="1">
+        <v>2</v>
+      </c>
+      <c r="X39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
       <c r="B40" s="1">
         <v>2</v>
       </c>
@@ -1897,9 +3511,51 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="J40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="1">
+        <v>3</v>
+      </c>
+      <c r="L40" s="1">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1">
+        <v>4</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>5</v>
+      </c>
+      <c r="U40" s="1">
+        <v>4</v>
+      </c>
+      <c r="V40" s="1">
+        <v>2</v>
+      </c>
+      <c r="W40" s="1">
+        <v>2</v>
+      </c>
+      <c r="X40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
       <c r="B41" s="1">
         <v>3</v>
       </c>
@@ -1918,9 +3574,51 @@
       <c r="G41" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="J41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="1">
+        <v>4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2</v>
+      </c>
+      <c r="O41" s="1">
+        <v>2</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>3</v>
+      </c>
+      <c r="W41" s="1">
+        <v>6</v>
+      </c>
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
       <c r="B42" s="1">
         <v>4</v>
       </c>
@@ -1939,9 +3637,51 @@
       <c r="G42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="J42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>5</v>
+      </c>
+      <c r="M42" s="1">
+        <v>4</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2</v>
+      </c>
+      <c r="O42" s="1">
+        <v>2</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="4">
+        <v>2</v>
+      </c>
+      <c r="T42" s="4">
+        <v>0</v>
+      </c>
+      <c r="U42" s="4">
+        <v>1</v>
+      </c>
+      <c r="V42" s="4">
+        <v>0</v>
+      </c>
+      <c r="W42" s="4">
+        <v>2</v>
+      </c>
+      <c r="X42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
       <c r="B43" s="1">
         <v>5</v>
       </c>
@@ -1960,9 +3700,37 @@
       <c r="G43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="J43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>6</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
       <c r="B44" s="1">
         <v>6</v>
       </c>
@@ -1981,9 +3749,37 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="J44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="1">
@@ -2004,9 +3800,51 @@
       <c r="G45" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="J45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2</v>
+      </c>
+      <c r="P45" s="1">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
       <c r="B46" s="1">
         <v>1</v>
       </c>
@@ -2025,9 +3863,51 @@
       <c r="G46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="J46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4</v>
+      </c>
+      <c r="L46" s="1">
+        <v>4</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>8</v>
+      </c>
+      <c r="U46" s="1">
+        <v>10</v>
+      </c>
+      <c r="V46" s="1">
+        <v>9</v>
+      </c>
+      <c r="W46" s="1">
+        <v>13</v>
+      </c>
+      <c r="X46" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
       <c r="B47" s="1">
         <v>2</v>
       </c>
@@ -2046,9 +3926,51 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="J47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
       <c r="B48" s="1">
         <v>3</v>
       </c>
@@ -2067,9 +3989,51 @@
       <c r="G48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="J48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="4">
+        <v>6</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>3</v>
+      </c>
+      <c r="N48" s="4">
+        <v>1</v>
+      </c>
+      <c r="O48" s="4">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S48" s="1">
+        <v>2</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>1</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
       <c r="B49" s="1">
         <v>4</v>
       </c>
@@ -2088,9 +4052,30 @@
       <c r="G49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="R49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S49" s="1">
+        <v>3</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="1">
@@ -2111,9 +4096,51 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="J50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S50" s="1">
+        <v>4</v>
+      </c>
+      <c r="T50" s="1">
+        <v>4</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -2132,9 +4159,51 @@
       <c r="G51" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="J51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>12</v>
+      </c>
+      <c r="M51" s="1">
+        <v>9</v>
+      </c>
+      <c r="N51" s="1">
+        <v>6</v>
+      </c>
+      <c r="O51" s="1">
+        <v>12</v>
+      </c>
+      <c r="P51" s="1">
+        <v>7</v>
+      </c>
+      <c r="R51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <v>1</v>
+      </c>
+      <c r="W51" s="1">
+        <v>1</v>
+      </c>
+      <c r="X51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
       <c r="B52" s="1">
         <v>2</v>
       </c>
@@ -2153,9 +4222,51 @@
       <c r="G52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="J52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1</v>
+      </c>
+      <c r="T52" s="1">
+        <v>5</v>
+      </c>
+      <c r="U52" s="1">
+        <v>1</v>
+      </c>
+      <c r="V52" s="1">
+        <v>4</v>
+      </c>
+      <c r="W52" s="1">
+        <v>6</v>
+      </c>
+      <c r="X52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
       <c r="B53" s="1">
         <v>3</v>
       </c>
@@ -2174,9 +4285,51 @@
       <c r="G53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="J53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53" s="1">
+        <v>2</v>
+      </c>
+      <c r="T53" s="1">
+        <v>5</v>
+      </c>
+      <c r="U53" s="1">
+        <v>8</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>1</v>
+      </c>
+      <c r="X53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
       <c r="B54" s="1">
         <v>4</v>
       </c>
@@ -2195,9 +4348,51 @@
       <c r="G54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="J54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>2</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54" s="1">
+        <v>3</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1</v>
+      </c>
+      <c r="U54" s="1">
+        <v>3</v>
+      </c>
+      <c r="V54" s="1">
+        <v>2</v>
+      </c>
+      <c r="W54" s="1">
+        <v>5</v>
+      </c>
+      <c r="X54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="1">
@@ -2218,9 +4413,51 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="J55" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="1">
+        <v>4</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>3</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S55" s="1">
+        <v>4</v>
+      </c>
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>3</v>
+      </c>
+      <c r="W55" s="1">
+        <v>1</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
       <c r="B56" s="1">
         <v>1</v>
       </c>
@@ -2239,9 +4476,51 @@
       <c r="G56" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="J56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>3</v>
+      </c>
+      <c r="O56" s="1">
+        <v>6</v>
+      </c>
+      <c r="P56" s="1">
+        <v>1</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>11</v>
+      </c>
+      <c r="U56" s="1">
+        <v>11</v>
+      </c>
+      <c r="V56" s="1">
+        <v>8</v>
+      </c>
+      <c r="W56" s="1">
+        <v>11</v>
+      </c>
+      <c r="X56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
       <c r="B57" s="1">
         <v>2</v>
       </c>
@@ -2260,9 +4539,51 @@
       <c r="G57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="J57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>2</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>2</v>
+      </c>
+      <c r="P57" s="1">
+        <v>2</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1</v>
+      </c>
+      <c r="U57" s="1">
+        <v>1</v>
+      </c>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
       <c r="B58" s="1">
         <v>3</v>
       </c>
@@ -2281,9 +4602,51 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="J58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1">
+        <v>5</v>
+      </c>
+      <c r="M58" s="1">
+        <v>7</v>
+      </c>
+      <c r="N58" s="1">
+        <v>3</v>
+      </c>
+      <c r="O58" s="1">
+        <v>2</v>
+      </c>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="1">
+        <v>2</v>
+      </c>
+      <c r="T58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="1">
@@ -2304,9 +4667,51 @@
       <c r="G59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="J59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="1">
+        <v>3</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+      <c r="P59" s="1">
+        <v>1</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="1">
+        <v>3</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+      <c r="U59" s="1">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <v>1</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
       <c r="B60" s="1">
         <v>1</v>
       </c>
@@ -2325,9 +4730,51 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="J60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="1">
+        <v>4</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
+      <c r="O60" s="1">
+        <v>2</v>
+      </c>
+      <c r="P60" s="1">
+        <v>1</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S60" s="1">
+        <v>4</v>
+      </c>
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1">
+        <v>1</v>
+      </c>
+      <c r="W60" s="1">
+        <v>2</v>
+      </c>
+      <c r="X60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
       <c r="B61" s="1">
         <v>2</v>
       </c>
@@ -2346,9 +4793,51 @@
       <c r="G61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="J61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>0</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>2</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>3</v>
+      </c>
+      <c r="W61" s="1">
+        <v>7</v>
+      </c>
+      <c r="X61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
       <c r="B62" s="1">
         <v>3</v>
       </c>
@@ -2367,9 +4856,51 @@
       <c r="G62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="J62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>10</v>
+      </c>
+      <c r="M62" s="1">
+        <v>9</v>
+      </c>
+      <c r="N62" s="1">
+        <v>8</v>
+      </c>
+      <c r="O62" s="1">
+        <v>12</v>
+      </c>
+      <c r="P62" s="1">
+        <v>5</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S62" s="1">
+        <v>1</v>
+      </c>
+      <c r="T62" s="1">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1">
+        <v>2</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>1</v>
+      </c>
+      <c r="X62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
       <c r="B63" s="1">
         <v>4</v>
       </c>
@@ -2388,9 +4919,51 @@
       <c r="G63" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="J63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="1">
+        <v>2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S63" s="1">
+        <v>2</v>
+      </c>
+      <c r="T63" s="1">
+        <v>2</v>
+      </c>
+      <c r="U63" s="1">
+        <v>8</v>
+      </c>
+      <c r="V63" s="1">
+        <v>1</v>
+      </c>
+      <c r="W63" s="1">
+        <v>2</v>
+      </c>
+      <c r="X63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
       <c r="B64" s="1">
         <v>5</v>
       </c>
@@ -2409,9 +4982,51 @@
       <c r="G64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="J64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="1">
+        <v>3</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S64" s="1">
+        <v>3</v>
+      </c>
+      <c r="T64" s="1">
+        <v>1</v>
+      </c>
+      <c r="U64" s="1">
+        <v>1</v>
+      </c>
+      <c r="V64" s="1">
+        <v>4</v>
+      </c>
+      <c r="W64" s="1">
+        <v>4</v>
+      </c>
+      <c r="X64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1">
@@ -2432,9 +5047,51 @@
       <c r="G65" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
+      <c r="J65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>2</v>
+      </c>
+      <c r="O65" s="1">
+        <v>6</v>
+      </c>
+      <c r="P65" s="1">
+        <v>1</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S65" s="1">
+        <v>4</v>
+      </c>
+      <c r="T65" s="1">
+        <v>6</v>
+      </c>
+      <c r="U65" s="1">
+        <v>1</v>
+      </c>
+      <c r="V65" s="1">
+        <v>2</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
       <c r="B66" s="1">
         <v>1</v>
       </c>
@@ -2453,9 +5110,51 @@
       <c r="G66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="J66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>3</v>
+      </c>
+      <c r="N66" s="1">
+        <v>2</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1">
+        <v>6</v>
+      </c>
+      <c r="U66" s="1">
+        <v>2</v>
+      </c>
+      <c r="V66" s="1">
+        <v>9</v>
+      </c>
+      <c r="W66" s="1">
+        <v>13</v>
+      </c>
+      <c r="X66" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
       <c r="B67" s="1">
         <v>2</v>
       </c>
@@ -2474,9 +5173,51 @@
       <c r="G67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
+      <c r="J67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="1">
+        <v>2</v>
+      </c>
+      <c r="L67" s="1">
+        <v>4</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S67" s="1">
+        <v>1</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>4</v>
+      </c>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
       <c r="B68" s="1">
         <v>3</v>
       </c>
@@ -2495,9 +5236,51 @@
       <c r="G68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="J68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="1">
+        <v>3</v>
+      </c>
+      <c r="L68" s="1">
+        <v>5</v>
+      </c>
+      <c r="M68" s="1">
+        <v>4</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+      <c r="O68" s="1">
+        <v>2</v>
+      </c>
+      <c r="P68" s="1">
+        <v>1</v>
+      </c>
+      <c r="R68" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="S68" s="4">
+        <v>2</v>
+      </c>
+      <c r="T68" s="4">
+        <v>5</v>
+      </c>
+      <c r="U68" s="4">
+        <v>2</v>
+      </c>
+      <c r="V68" s="4">
+        <v>0</v>
+      </c>
+      <c r="W68" s="4">
+        <v>1</v>
+      </c>
+      <c r="X68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="1">
@@ -2518,9 +5301,37 @@
       <c r="G69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="J69" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="1">
+        <v>4</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1">
+        <v>3</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+      <c r="O69" s="1">
+        <v>5</v>
+      </c>
+      <c r="P69" s="1">
+        <v>3</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
       <c r="B70" s="1">
         <v>1</v>
       </c>
@@ -2539,9 +5350,51 @@
       <c r="G70" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="J70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="1">
+        <v>5</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>1</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T70" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U70" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="V70" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W70" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X70" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
       <c r="B71" s="1">
         <v>2</v>
       </c>
@@ -2560,9 +5413,51 @@
       <c r="G71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+      <c r="J71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="1">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <v>10</v>
+      </c>
+      <c r="M71" s="1">
+        <v>10</v>
+      </c>
+      <c r="N71" s="1">
+        <v>9</v>
+      </c>
+      <c r="O71" s="1">
+        <v>13</v>
+      </c>
+      <c r="P71" s="1">
+        <v>6</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S71" s="17">
+        <v>3</v>
+      </c>
+      <c r="T71" s="17">
+        <v>1</v>
+      </c>
+      <c r="U71" s="17">
+        <v>3</v>
+      </c>
+      <c r="V71" s="17">
+        <v>0</v>
+      </c>
+      <c r="W71" s="17">
+        <v>0</v>
+      </c>
+      <c r="X71" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
       <c r="B72" s="1">
         <v>3</v>
       </c>
@@ -2581,9 +5476,51 @@
       <c r="G72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="J72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>1</v>
+      </c>
+      <c r="N72" s="1">
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <v>1</v>
+      </c>
+      <c r="R72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S72" s="17">
+        <v>0</v>
+      </c>
+      <c r="T72" s="17">
+        <v>2</v>
+      </c>
+      <c r="U72" s="17">
+        <v>5</v>
+      </c>
+      <c r="V72" s="17">
+        <v>1</v>
+      </c>
+      <c r="W72" s="17">
+        <v>0</v>
+      </c>
+      <c r="X72" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
       <c r="B73" s="1">
         <v>4</v>
       </c>
@@ -2600,6 +5537,1264 @@
         <v>2</v>
       </c>
       <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S73" s="17">
+        <v>1</v>
+      </c>
+      <c r="T73" s="17">
+        <v>1</v>
+      </c>
+      <c r="U73" s="17">
+        <v>0</v>
+      </c>
+      <c r="V73" s="17">
+        <v>2</v>
+      </c>
+      <c r="W73" s="17">
+        <v>6</v>
+      </c>
+      <c r="X73" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="1">
+        <v>3</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S74" s="17">
+        <v>2</v>
+      </c>
+      <c r="T74" s="17">
+        <v>1</v>
+      </c>
+      <c r="U74" s="17">
+        <v>2</v>
+      </c>
+      <c r="V74" s="17">
+        <v>1</v>
+      </c>
+      <c r="W74" s="17">
+        <v>4</v>
+      </c>
+      <c r="X74" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>6</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>4</v>
+      </c>
+      <c r="O75" s="1">
+        <v>6</v>
+      </c>
+      <c r="P75" s="1">
+        <v>1</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S75" s="17">
+        <v>3</v>
+      </c>
+      <c r="T75" s="17">
+        <v>0</v>
+      </c>
+      <c r="U75" s="17">
+        <v>0</v>
+      </c>
+      <c r="V75" s="17">
+        <v>1</v>
+      </c>
+      <c r="W75" s="17">
+        <v>0</v>
+      </c>
+      <c r="X75" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>3</v>
+      </c>
+      <c r="N76" s="1">
+        <v>2</v>
+      </c>
+      <c r="O76" s="1">
+        <v>5</v>
+      </c>
+      <c r="P76" s="1">
+        <v>4</v>
+      </c>
+      <c r="R76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S76" s="17">
+        <v>4</v>
+      </c>
+      <c r="T76" s="17">
+        <v>6</v>
+      </c>
+      <c r="U76" s="17">
+        <v>1</v>
+      </c>
+      <c r="V76" s="17">
+        <v>2</v>
+      </c>
+      <c r="W76" s="17">
+        <v>1</v>
+      </c>
+      <c r="X76" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="1">
+        <v>2</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="R77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S77" s="17">
+        <v>5</v>
+      </c>
+      <c r="T77" s="17">
+        <v>2</v>
+      </c>
+      <c r="U77" s="17">
+        <v>3</v>
+      </c>
+      <c r="V77" s="17">
+        <v>2</v>
+      </c>
+      <c r="W77" s="17">
+        <v>2</v>
+      </c>
+      <c r="X77" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="1">
+        <v>3</v>
+      </c>
+      <c r="L78" s="1">
+        <v>2</v>
+      </c>
+      <c r="M78" s="1">
+        <v>2</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S78" s="17">
+        <v>6</v>
+      </c>
+      <c r="T78" s="17">
+        <v>0</v>
+      </c>
+      <c r="U78" s="17">
+        <v>0</v>
+      </c>
+      <c r="V78" s="17">
+        <v>0</v>
+      </c>
+      <c r="W78" s="17">
+        <v>1</v>
+      </c>
+      <c r="X78" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="4">
+        <v>4</v>
+      </c>
+      <c r="L79" s="4">
+        <v>2</v>
+      </c>
+      <c r="M79" s="4">
+        <v>5</v>
+      </c>
+      <c r="N79" s="4">
+        <v>3</v>
+      </c>
+      <c r="O79" s="4">
+        <v>2</v>
+      </c>
+      <c r="P79" s="4">
+        <v>1</v>
+      </c>
+      <c r="R79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S79" s="17">
+        <v>0</v>
+      </c>
+      <c r="T79" s="17">
+        <v>4</v>
+      </c>
+      <c r="U79" s="17">
+        <v>2</v>
+      </c>
+      <c r="V79" s="17">
+        <v>6</v>
+      </c>
+      <c r="W79" s="17">
+        <v>10</v>
+      </c>
+      <c r="X79" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="R80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S80" s="17">
+        <v>1</v>
+      </c>
+      <c r="T80" s="17">
+        <v>2</v>
+      </c>
+      <c r="U80" s="17">
+        <v>1</v>
+      </c>
+      <c r="V80" s="17">
+        <v>0</v>
+      </c>
+      <c r="W80" s="17">
+        <v>0</v>
+      </c>
+      <c r="X80" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R81" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S81" s="17">
+        <v>2</v>
+      </c>
+      <c r="T81" s="17">
+        <v>0</v>
+      </c>
+      <c r="U81" s="17">
+        <v>2</v>
+      </c>
+      <c r="V81" s="17">
+        <v>0</v>
+      </c>
+      <c r="W81" s="17">
+        <v>1</v>
+      </c>
+      <c r="X81" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R82" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S82" s="17">
+        <v>3</v>
+      </c>
+      <c r="T82" s="17">
+        <v>3</v>
+      </c>
+      <c r="U82" s="17">
+        <v>4</v>
+      </c>
+      <c r="V82" s="17">
+        <v>0</v>
+      </c>
+      <c r="W82" s="17">
+        <v>0</v>
+      </c>
+      <c r="X82" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S83" s="17">
+        <v>4</v>
+      </c>
+      <c r="T83" s="17">
+        <v>2</v>
+      </c>
+      <c r="U83" s="17">
+        <v>1</v>
+      </c>
+      <c r="V83" s="17">
+        <v>2</v>
+      </c>
+      <c r="W83" s="17">
+        <v>2</v>
+      </c>
+      <c r="X83" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S84" s="17">
+        <v>0</v>
+      </c>
+      <c r="T84" s="17">
+        <v>5</v>
+      </c>
+      <c r="U84" s="17">
+        <v>4</v>
+      </c>
+      <c r="V84" s="17">
+        <v>2</v>
+      </c>
+      <c r="W84" s="17">
+        <v>2</v>
+      </c>
+      <c r="X84" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S85" s="17">
+        <v>1</v>
+      </c>
+      <c r="T85" s="17">
+        <v>1</v>
+      </c>
+      <c r="U85" s="17">
+        <v>0</v>
+      </c>
+      <c r="V85" s="17">
+        <v>3</v>
+      </c>
+      <c r="W85" s="17">
+        <v>6</v>
+      </c>
+      <c r="X85" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S86" s="17">
+        <v>2</v>
+      </c>
+      <c r="T86" s="17">
+        <v>0</v>
+      </c>
+      <c r="U86" s="17">
+        <v>1</v>
+      </c>
+      <c r="V86" s="17">
+        <v>0</v>
+      </c>
+      <c r="W86" s="17">
+        <v>2</v>
+      </c>
+      <c r="X86" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S87" s="17">
+        <v>3</v>
+      </c>
+      <c r="T87" s="17">
+        <v>1</v>
+      </c>
+      <c r="U87" s="17">
+        <v>1</v>
+      </c>
+      <c r="V87" s="17">
+        <v>1</v>
+      </c>
+      <c r="W87" s="17">
+        <v>2</v>
+      </c>
+      <c r="X87" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S88" s="17">
+        <v>4</v>
+      </c>
+      <c r="T88" s="17">
+        <v>4</v>
+      </c>
+      <c r="U88" s="17">
+        <v>1</v>
+      </c>
+      <c r="V88" s="17">
+        <v>1</v>
+      </c>
+      <c r="W88" s="17">
+        <v>0</v>
+      </c>
+      <c r="X88" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R89" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S89" s="17">
+        <v>5</v>
+      </c>
+      <c r="T89" s="17">
+        <v>0</v>
+      </c>
+      <c r="U89" s="17">
+        <v>1</v>
+      </c>
+      <c r="V89" s="17">
+        <v>0</v>
+      </c>
+      <c r="W89" s="17">
+        <v>1</v>
+      </c>
+      <c r="X89" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S90" s="17">
+        <v>6</v>
+      </c>
+      <c r="T90" s="17">
+        <v>0</v>
+      </c>
+      <c r="U90" s="17">
+        <v>3</v>
+      </c>
+      <c r="V90" s="17">
+        <v>1</v>
+      </c>
+      <c r="W90" s="17">
+        <v>0</v>
+      </c>
+      <c r="X90" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R91" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S91" s="17">
+        <v>0</v>
+      </c>
+      <c r="T91" s="17">
+        <v>12</v>
+      </c>
+      <c r="U91" s="17">
+        <v>9</v>
+      </c>
+      <c r="V91" s="17">
+        <v>6</v>
+      </c>
+      <c r="W91" s="17">
+        <v>12</v>
+      </c>
+      <c r="X91" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R92" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S92" s="17">
+        <v>1</v>
+      </c>
+      <c r="T92" s="17">
+        <v>0</v>
+      </c>
+      <c r="U92" s="17">
+        <v>1</v>
+      </c>
+      <c r="V92" s="17">
+        <v>0</v>
+      </c>
+      <c r="W92" s="17">
+        <v>0</v>
+      </c>
+      <c r="X92" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S93" s="17">
+        <v>2</v>
+      </c>
+      <c r="T93" s="17">
+        <v>0</v>
+      </c>
+      <c r="U93" s="17">
+        <v>0</v>
+      </c>
+      <c r="V93" s="17">
+        <v>0</v>
+      </c>
+      <c r="W93" s="17">
+        <v>1</v>
+      </c>
+      <c r="X93" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S94" s="17">
+        <v>3</v>
+      </c>
+      <c r="T94" s="17">
+        <v>0</v>
+      </c>
+      <c r="U94" s="17">
+        <v>2</v>
+      </c>
+      <c r="V94" s="17">
+        <v>1</v>
+      </c>
+      <c r="W94" s="17">
+        <v>0</v>
+      </c>
+      <c r="X94" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R95" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S95" s="17">
+        <v>4</v>
+      </c>
+      <c r="T95" s="17">
+        <v>0</v>
+      </c>
+      <c r="U95" s="17">
+        <v>0</v>
+      </c>
+      <c r="V95" s="17">
+        <v>3</v>
+      </c>
+      <c r="W95" s="17">
+        <v>1</v>
+      </c>
+      <c r="X95" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R96" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S96" s="17">
+        <v>0</v>
+      </c>
+      <c r="T96" s="17">
+        <v>4</v>
+      </c>
+      <c r="U96" s="17">
+        <v>1</v>
+      </c>
+      <c r="V96" s="17">
+        <v>3</v>
+      </c>
+      <c r="W96" s="17">
+        <v>6</v>
+      </c>
+      <c r="X96" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R97" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S97" s="17">
+        <v>1</v>
+      </c>
+      <c r="T97" s="17">
+        <v>0</v>
+      </c>
+      <c r="U97" s="17">
+        <v>2</v>
+      </c>
+      <c r="V97" s="17">
+        <v>0</v>
+      </c>
+      <c r="W97" s="17">
+        <v>2</v>
+      </c>
+      <c r="X97" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R98" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S98" s="17">
+        <v>2</v>
+      </c>
+      <c r="T98" s="17">
+        <v>5</v>
+      </c>
+      <c r="U98" s="17">
+        <v>7</v>
+      </c>
+      <c r="V98" s="17">
+        <v>3</v>
+      </c>
+      <c r="W98" s="17">
+        <v>2</v>
+      </c>
+      <c r="X98" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S99" s="17">
+        <v>3</v>
+      </c>
+      <c r="T99" s="17">
+        <v>1</v>
+      </c>
+      <c r="U99" s="17">
+        <v>0</v>
+      </c>
+      <c r="V99" s="17">
+        <v>1</v>
+      </c>
+      <c r="W99" s="17">
+        <v>1</v>
+      </c>
+      <c r="X99" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R100" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S100" s="17">
+        <v>4</v>
+      </c>
+      <c r="T100" s="17">
+        <v>1</v>
+      </c>
+      <c r="U100" s="17">
+        <v>1</v>
+      </c>
+      <c r="V100" s="17">
+        <v>1</v>
+      </c>
+      <c r="W100" s="17">
+        <v>2</v>
+      </c>
+      <c r="X100" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R101" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S101" s="17">
+        <v>0</v>
+      </c>
+      <c r="T101" s="17">
+        <v>0</v>
+      </c>
+      <c r="U101" s="17">
+        <v>1</v>
+      </c>
+      <c r="V101" s="17">
+        <v>0</v>
+      </c>
+      <c r="W101" s="17">
+        <v>0</v>
+      </c>
+      <c r="X101" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S102" s="17">
+        <v>1</v>
+      </c>
+      <c r="T102" s="17">
+        <v>10</v>
+      </c>
+      <c r="U102" s="17">
+        <v>9</v>
+      </c>
+      <c r="V102" s="17">
+        <v>8</v>
+      </c>
+      <c r="W102" s="17">
+        <v>12</v>
+      </c>
+      <c r="X102" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R103" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S103" s="19">
+        <v>2</v>
+      </c>
+      <c r="T103" s="19">
+        <v>0</v>
+      </c>
+      <c r="U103" s="19">
+        <v>0</v>
+      </c>
+      <c r="V103" s="19">
+        <v>0</v>
+      </c>
+      <c r="W103" s="19">
+        <v>1</v>
+      </c>
+      <c r="X103" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R104" s="8"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="17"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="17"/>
+      <c r="X104" s="17"/>
+    </row>
+    <row r="105" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R105" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S105" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T105" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U105" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="V105" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W105" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="X105" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R106" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S106" s="1">
+        <v>3</v>
+      </c>
+      <c r="T106" s="1">
+        <v>1</v>
+      </c>
+      <c r="U106" s="1">
+        <v>0</v>
+      </c>
+      <c r="V106" s="1">
+        <v>0</v>
+      </c>
+      <c r="W106" s="1">
+        <v>0</v>
+      </c>
+      <c r="X106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R107" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1</v>
+      </c>
+      <c r="U107" s="1">
+        <v>0</v>
+      </c>
+      <c r="V107" s="1">
+        <v>2</v>
+      </c>
+      <c r="W107" s="1">
+        <v>6</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R108" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S108" s="1">
+        <v>1</v>
+      </c>
+      <c r="T108" s="1">
+        <v>0</v>
+      </c>
+      <c r="U108" s="1">
+        <v>3</v>
+      </c>
+      <c r="V108" s="1">
+        <v>2</v>
+      </c>
+      <c r="W108" s="1">
+        <v>0</v>
+      </c>
+      <c r="X108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R109" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S109" s="1">
+        <v>2</v>
+      </c>
+      <c r="T109" s="1">
+        <v>4</v>
+      </c>
+      <c r="U109" s="1">
+        <v>1</v>
+      </c>
+      <c r="V109" s="1">
+        <v>1</v>
+      </c>
+      <c r="W109" s="1">
+        <v>0</v>
+      </c>
+      <c r="X109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R110" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S110" s="1">
+        <v>3</v>
+      </c>
+      <c r="T110" s="1">
+        <v>5</v>
+      </c>
+      <c r="U110" s="1">
+        <v>4</v>
+      </c>
+      <c r="V110" s="1">
+        <v>1</v>
+      </c>
+      <c r="W110" s="1">
+        <v>2</v>
+      </c>
+      <c r="X110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S111" s="1">
+        <v>4</v>
+      </c>
+      <c r="T111" s="1">
+        <v>0</v>
+      </c>
+      <c r="U111" s="1">
+        <v>3</v>
+      </c>
+      <c r="V111" s="1">
+        <v>1</v>
+      </c>
+      <c r="W111" s="1">
+        <v>5</v>
+      </c>
+      <c r="X111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R112" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S112" s="1">
+        <v>5</v>
+      </c>
+      <c r="T112" s="1">
+        <v>1</v>
+      </c>
+      <c r="U112" s="1">
+        <v>0</v>
+      </c>
+      <c r="V112" s="1">
+        <v>1</v>
+      </c>
+      <c r="W112" s="1">
+        <v>0</v>
+      </c>
+      <c r="X112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+      <c r="T113" s="1">
+        <v>10</v>
+      </c>
+      <c r="U113" s="1">
+        <v>10</v>
+      </c>
+      <c r="V113" s="1">
+        <v>9</v>
+      </c>
+      <c r="W113" s="1">
+        <v>13</v>
+      </c>
+      <c r="X113" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S114" s="1">
+        <v>1</v>
+      </c>
+      <c r="T114" s="1">
+        <v>1</v>
+      </c>
+      <c r="U114" s="1">
+        <v>1</v>
+      </c>
+      <c r="V114" s="1">
+        <v>1</v>
+      </c>
+      <c r="W114" s="1">
+        <v>0</v>
+      </c>
+      <c r="X114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R115" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S115" s="1">
+        <v>2</v>
+      </c>
+      <c r="T115" s="1">
+        <v>0</v>
+      </c>
+      <c r="U115" s="1">
+        <v>0</v>
+      </c>
+      <c r="V115" s="1">
+        <v>0</v>
+      </c>
+      <c r="W115" s="1">
+        <v>1</v>
+      </c>
+      <c r="X115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S116" s="1">
+        <v>3</v>
+      </c>
+      <c r="T116" s="1">
+        <v>1</v>
+      </c>
+      <c r="U116" s="1">
+        <v>1</v>
+      </c>
+      <c r="V116" s="1">
+        <v>0</v>
+      </c>
+      <c r="W116" s="1">
+        <v>0</v>
+      </c>
+      <c r="X116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S117" s="1">
+        <v>0</v>
+      </c>
+      <c r="T117" s="1">
+        <v>6</v>
+      </c>
+      <c r="U117" s="1">
+        <v>0</v>
+      </c>
+      <c r="V117" s="1">
+        <v>4</v>
+      </c>
+      <c r="W117" s="1">
+        <v>6</v>
+      </c>
+      <c r="X117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R118" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S118" s="1">
+        <v>1</v>
+      </c>
+      <c r="T118" s="1">
+        <v>1</v>
+      </c>
+      <c r="U118" s="1">
+        <v>3</v>
+      </c>
+      <c r="V118" s="1">
+        <v>2</v>
+      </c>
+      <c r="W118" s="1">
+        <v>5</v>
+      </c>
+      <c r="X118" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R119" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S119" s="1">
+        <v>2</v>
+      </c>
+      <c r="T119" s="1">
+        <v>0</v>
+      </c>
+      <c r="U119" s="1">
+        <v>1</v>
+      </c>
+      <c r="V119" s="1">
+        <v>0</v>
+      </c>
+      <c r="W119" s="1">
+        <v>0</v>
+      </c>
+      <c r="X119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R120" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S120" s="1">
+        <v>3</v>
+      </c>
+      <c r="T120" s="1">
+        <v>2</v>
+      </c>
+      <c r="U120" s="1">
+        <v>2</v>
+      </c>
+      <c r="V120" s="1">
+        <v>0</v>
+      </c>
+      <c r="W120" s="1">
+        <v>0</v>
+      </c>
+      <c r="X120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="18:24" x14ac:dyDescent="0.25">
+      <c r="R121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="S121" s="4">
+        <v>4</v>
+      </c>
+      <c r="T121" s="4">
+        <v>2</v>
+      </c>
+      <c r="U121" s="4">
+        <v>5</v>
+      </c>
+      <c r="V121" s="4">
+        <v>3</v>
+      </c>
+      <c r="W121" s="4">
+        <v>2</v>
+      </c>
+      <c r="X121" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2613,12 +6808,12 @@
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A26:A32"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A32"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
